--- a/ClosedXML_Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML_Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -16,7 +16,7 @@
   </x:definedNames>
   <x:calcPr calcId="125725"/>
   <x:pivotCaches>
-    <x:pivotCache cacheId="0" r:id="rId4"/>
+    <x:pivotCache cacheId="1" r:id="rId8"/>
   </x:pivotCaches>
 </x:workbook>
 </file>
@@ -1290,316 +1290,8 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" refreshedBy=" " refreshedDate="43579.724609375" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="1">
-  <x:cacheSource type="worksheet">
-    <x:worksheetSource ref="B2:H207" sheet="Sheet1"/>
-  </x:cacheSource>
-  <x:cacheFields count="7">
-    <x:cacheField name="Company">
-      <x:sharedItems count="54">
-        <x:s v="Sight Diver"/>
-        <x:s v="Davy Jones' Locker"/>
-        <x:s v="Tom Sawyer Diving Centre"/>
-        <x:s v="Blue Jack Aqua Center"/>
-        <x:s v="VIP Divers Club"/>
-        <x:s v="Ocean Paradise"/>
-        <x:s v="Fantastique Aquatica"/>
-        <x:s v="Marmot Divers Club"/>
-        <x:s v="The Depth Charge"/>
-        <x:s v="Blue Sports"/>
-        <x:s v="Makai SCUBA Club"/>
-        <x:s v="Action Club"/>
-        <x:s v="Jamaica SCUBA Centre"/>
-        <x:s v="Island Finders"/>
-        <x:s v="Adventure Undersea"/>
-        <x:s v="Blue Sports Club"/>
-        <x:s v="Frank's Divers Supply"/>
-        <x:s v="SCUBA Heaven"/>
-        <x:s v="Kauai Dive Shoppe"/>
-        <x:s v="Fisherman's Eye"/>
-        <x:s v="Marina SCUBA Center"/>
-        <x:s v="Tora Tora Tora"/>
-        <x:s v="Action Diver Supply"/>
-        <x:s v="Waterspout SCUBA Center"/>
-        <x:s v="Jamaica Sun, Inc."/>
-        <x:s v="Blue Glass Happiness"/>
-        <x:s v="Princess Island SCUBA"/>
-        <x:s v="Ocean Adventures"/>
-        <x:s v="Neptune's Trident Supply"/>
-        <x:s v="Divers of Corfu, Inc."/>
-        <x:s v="Divers-for-Hire"/>
-        <x:s v="Underwater Sports Co."/>
-        <x:s v="Shangri-La Sports Center"/>
-        <x:s v="The Diving Company"/>
-        <x:s v="Unisco"/>
-        <x:s v="Gold Coast Supply"/>
-        <x:s v="Aquatic Drama"/>
-        <x:s v="Catamaran Dive Club"/>
-        <x:s v="On-Target SCUBA"/>
-        <x:s v="George Bean &amp; Co."/>
-        <x:s v="Underwater SCUBA Company"/>
-        <x:s v="Divers of Blue-green"/>
-        <x:s v="Norwest'er SCUBA Limited"/>
-        <x:s v="Safari Under the Sea"/>
-        <x:s v="Kirk Enterprises"/>
-        <x:s v="Cayman Divers World Unlimited"/>
-        <x:s v="Underwater Fantasy"/>
-        <x:s v="Divers of Venice"/>
-        <x:s v="Central Underwater Supplies"/>
-        <x:s v="Larry's Diving School"/>
-        <x:s v="San Pablo Dive Center"/>
-        <x:s v="Professional Divers, Ltd."/>
-        <x:s v="American SCUBA Supply"/>
-        <x:s v="Vashon Ventures"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Payment method">
-      <x:sharedItems count="7">
-        <x:s v="Credit"/>
-        <x:s v="Check"/>
-        <x:s v="Visa"/>
-        <x:s v="COD"/>
-        <x:s v="MC"/>
-        <x:s v="AmEx"/>
-        <x:s v="Cash"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="OrderNo">
-      <x:sharedItems count="205">
-        <x:s v="1003"/>
-        <x:s v="1004"/>
-        <x:s v="1005"/>
-        <x:s v="1006"/>
-        <x:s v="1007"/>
-        <x:s v="1008"/>
-        <x:s v="1009"/>
-        <x:s v="1010"/>
-        <x:s v="1011"/>
-        <x:s v="1012"/>
-        <x:s v="1013"/>
-        <x:s v="1014"/>
-        <x:s v="1015"/>
-        <x:s v="1016"/>
-        <x:s v="1017"/>
-        <x:s v="1018"/>
-        <x:s v="1019"/>
-        <x:s v="1020"/>
-        <x:s v="1021"/>
-        <x:s v="1022"/>
-        <x:s v="1023"/>
-        <x:s v="1024"/>
-        <x:s v="1025"/>
-        <x:s v="1026"/>
-        <x:s v="1027"/>
-        <x:s v="1028"/>
-        <x:s v="1029"/>
-        <x:s v="1030"/>
-        <x:s v="1031"/>
-        <x:s v="1032"/>
-        <x:s v="1033"/>
-        <x:s v="1034"/>
-        <x:s v="1035"/>
-        <x:s v="1036"/>
-        <x:s v="1037"/>
-        <x:s v="1038"/>
-        <x:s v="1039"/>
-        <x:s v="1040"/>
-        <x:s v="1041"/>
-        <x:s v="1042"/>
-        <x:s v="1043"/>
-        <x:s v="1044"/>
-        <x:s v="1045"/>
-        <x:s v="1046"/>
-        <x:s v="1047"/>
-        <x:s v="1048"/>
-        <x:s v="1049"/>
-        <x:s v="1050"/>
-        <x:s v="1051"/>
-        <x:s v="1052"/>
-        <x:s v="1053"/>
-        <x:s v="1054"/>
-        <x:s v="1055"/>
-        <x:s v="1056"/>
-        <x:s v="1057"/>
-        <x:s v="1058"/>
-        <x:s v="1059"/>
-        <x:s v="1060"/>
-        <x:s v="1061"/>
-        <x:s v="1062"/>
-        <x:s v="1063"/>
-        <x:s v="1064"/>
-        <x:s v="1065"/>
-        <x:s v="1066"/>
-        <x:s v="1067"/>
-        <x:s v="1068"/>
-        <x:s v="1069"/>
-        <x:s v="1070"/>
-        <x:s v="1071"/>
-        <x:s v="1072"/>
-        <x:s v="1073"/>
-        <x:s v="1074"/>
-        <x:s v="1075"/>
-        <x:s v="1076"/>
-        <x:s v="1077"/>
-        <x:s v="1078"/>
-        <x:s v="1079"/>
-        <x:s v="1080"/>
-        <x:s v="1081"/>
-        <x:s v="1082"/>
-        <x:s v="1083"/>
-        <x:s v="1084"/>
-        <x:s v="1086"/>
-        <x:s v="1087"/>
-        <x:s v="1089"/>
-        <x:s v="1090"/>
-        <x:s v="1091"/>
-        <x:s v="1092"/>
-        <x:s v="1093"/>
-        <x:s v="1094"/>
-        <x:s v="1095"/>
-        <x:s v="1096"/>
-        <x:s v="1097"/>
-        <x:s v="1098"/>
-        <x:s v="1099"/>
-        <x:s v="1100"/>
-        <x:s v="1101"/>
-        <x:s v="1102"/>
-        <x:s v="1103"/>
-        <x:s v="1104"/>
-        <x:s v="1105"/>
-        <x:s v="1106"/>
-        <x:s v="1107"/>
-        <x:s v="1109"/>
-        <x:s v="1111"/>
-        <x:s v="1112"/>
-        <x:s v="1113"/>
-        <x:s v="1115"/>
-        <x:s v="1116"/>
-        <x:s v="1117"/>
-        <x:s v="1118"/>
-        <x:s v="1119"/>
-        <x:s v="1120"/>
-        <x:s v="1121"/>
-        <x:s v="1122"/>
-        <x:s v="1123"/>
-        <x:s v="1124"/>
-        <x:s v="1125"/>
-        <x:s v="1126"/>
-        <x:s v="1127"/>
-        <x:s v="1128"/>
-        <x:s v="1129"/>
-        <x:s v="1130"/>
-        <x:s v="1131"/>
-        <x:s v="1132"/>
-        <x:s v="1133"/>
-        <x:s v="1134"/>
-        <x:s v="1136"/>
-        <x:s v="1137"/>
-        <x:s v="1139"/>
-        <x:s v="1140"/>
-        <x:s v="1141"/>
-        <x:s v="1142"/>
-        <x:s v="1143"/>
-        <x:s v="1144"/>
-        <x:s v="1145"/>
-        <x:s v="1146"/>
-        <x:s v="1148"/>
-        <x:s v="1149"/>
-        <x:s v="1150"/>
-        <x:s v="1152"/>
-        <x:s v="1153"/>
-        <x:s v="1154"/>
-        <x:s v="1155"/>
-        <x:s v="1156"/>
-        <x:s v="1158"/>
-        <x:s v="1160"/>
-        <x:s v="1161"/>
-        <x:s v="1162"/>
-        <x:s v="1163"/>
-        <x:s v="1165"/>
-        <x:s v="1166"/>
-        <x:s v="1168"/>
-        <x:s v="1169"/>
-        <x:s v="1170"/>
-        <x:s v="1171"/>
-        <x:s v="1173"/>
-        <x:s v="1175"/>
-        <x:s v="1176"/>
-        <x:s v="1178"/>
-        <x:s v="1180"/>
-        <x:s v="1183"/>
-        <x:s v="1195"/>
-        <x:s v="1196"/>
-        <x:s v="1197"/>
-        <x:s v="1198"/>
-        <x:s v="1199"/>
-        <x:s v="1200"/>
-        <x:s v="1201"/>
-        <x:s v="1202"/>
-        <x:s v="1204"/>
-        <x:s v="1205"/>
-        <x:s v="1207"/>
-        <x:s v="1209"/>
-        <x:s v="1212"/>
-        <x:s v="1215"/>
-        <x:s v="1217"/>
-        <x:s v="1221"/>
-        <x:s v="1250"/>
-        <x:s v="1253"/>
-        <x:s v="1255"/>
-        <x:s v="1260"/>
-        <x:s v="1261"/>
-        <x:s v="1263"/>
-        <x:s v="1266"/>
-        <x:s v="1269"/>
-        <x:s v="1271"/>
-        <x:s v="1275"/>
-        <x:s v="1278"/>
-        <x:s v="1280"/>
-        <x:s v="1283"/>
-        <x:s v="1292"/>
-        <x:s v="1294"/>
-        <x:s v="1295"/>
-        <x:s v="1296"/>
-        <x:s v="1298"/>
-        <x:s v="1300"/>
-        <x:s v="1302"/>
-        <x:s v="1305"/>
-        <x:s v="1309"/>
-        <x:s v="1315"/>
-        <x:s v="1317"/>
-        <x:s v="1350"/>
-        <x:s v="1355"/>
-        <x:s v="1860"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Ship date">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1988-01-21T00:00:00" maxDate="1995-02-05T00:00:00" count="191"/>
-    </x:cacheField>
-    <x:cacheField name="Items total">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="54" maxValue="158922.65" count="205"/>
-    </x:cacheField>
-    <x:cacheField name="Tax rate">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="8.5" count="3">
-        <x:n v="4.5"/>
-        <x:n v="0"/>
-        <x:n v="8.5"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Amount paid">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="158922.65" count="184"/>
-    </x:cacheField>
-  </x:cacheFields>
-</x:pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <x:location ref="B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="7">
     <x:pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
@@ -2762,7 +2454,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <x:location ref="B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="7">
     <x:pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0">
@@ -9102,4 +8794,312 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1">
+  <x:cacheSource type="worksheet">
+    <x:worksheetSource ref="B2:H207" sheet="Sheet1"/>
+  </x:cacheSource>
+  <x:cacheFields>
+    <x:cacheField name="Company">
+      <x:sharedItems>
+        <x:s v="Sight Diver"/>
+        <x:s v="Davy Jones' Locker"/>
+        <x:s v="Tom Sawyer Diving Centre"/>
+        <x:s v="Blue Jack Aqua Center"/>
+        <x:s v="VIP Divers Club"/>
+        <x:s v="Ocean Paradise"/>
+        <x:s v="Fantastique Aquatica"/>
+        <x:s v="Marmot Divers Club"/>
+        <x:s v="The Depth Charge"/>
+        <x:s v="Blue Sports"/>
+        <x:s v="Makai SCUBA Club"/>
+        <x:s v="Action Club"/>
+        <x:s v="Jamaica SCUBA Centre"/>
+        <x:s v="Island Finders"/>
+        <x:s v="Adventure Undersea"/>
+        <x:s v="Blue Sports Club"/>
+        <x:s v="Frank's Divers Supply"/>
+        <x:s v="SCUBA Heaven"/>
+        <x:s v="Kauai Dive Shoppe"/>
+        <x:s v="Fisherman's Eye"/>
+        <x:s v="Marina SCUBA Center"/>
+        <x:s v="Tora Tora Tora"/>
+        <x:s v="Action Diver Supply"/>
+        <x:s v="Waterspout SCUBA Center"/>
+        <x:s v="Jamaica Sun, Inc."/>
+        <x:s v="Blue Glass Happiness"/>
+        <x:s v="Princess Island SCUBA"/>
+        <x:s v="Ocean Adventures"/>
+        <x:s v="Neptune's Trident Supply"/>
+        <x:s v="Divers of Corfu, Inc."/>
+        <x:s v="Divers-for-Hire"/>
+        <x:s v="Underwater Sports Co."/>
+        <x:s v="Shangri-La Sports Center"/>
+        <x:s v="The Diving Company"/>
+        <x:s v="Unisco"/>
+        <x:s v="Gold Coast Supply"/>
+        <x:s v="Aquatic Drama"/>
+        <x:s v="Catamaran Dive Club"/>
+        <x:s v="On-Target SCUBA"/>
+        <x:s v="George Bean &amp; Co."/>
+        <x:s v="Underwater SCUBA Company"/>
+        <x:s v="Divers of Blue-green"/>
+        <x:s v="Norwest'er SCUBA Limited"/>
+        <x:s v="Safari Under the Sea"/>
+        <x:s v="Kirk Enterprises"/>
+        <x:s v="Cayman Divers World Unlimited"/>
+        <x:s v="Underwater Fantasy"/>
+        <x:s v="Divers of Venice"/>
+        <x:s v="Central Underwater Supplies"/>
+        <x:s v="Larry's Diving School"/>
+        <x:s v="San Pablo Dive Center"/>
+        <x:s v="Professional Divers, Ltd."/>
+        <x:s v="American SCUBA Supply"/>
+        <x:s v="Vashon Ventures"/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="Payment method">
+      <x:sharedItems>
+        <x:s v="Credit"/>
+        <x:s v="Check"/>
+        <x:s v="Visa"/>
+        <x:s v="COD"/>
+        <x:s v="MC"/>
+        <x:s v="AmEx"/>
+        <x:s v="Cash"/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="OrderNo">
+      <x:sharedItems>
+        <x:s v="1003"/>
+        <x:s v="1004"/>
+        <x:s v="1005"/>
+        <x:s v="1006"/>
+        <x:s v="1007"/>
+        <x:s v="1008"/>
+        <x:s v="1009"/>
+        <x:s v="1010"/>
+        <x:s v="1011"/>
+        <x:s v="1012"/>
+        <x:s v="1013"/>
+        <x:s v="1014"/>
+        <x:s v="1015"/>
+        <x:s v="1016"/>
+        <x:s v="1017"/>
+        <x:s v="1018"/>
+        <x:s v="1019"/>
+        <x:s v="1020"/>
+        <x:s v="1021"/>
+        <x:s v="1022"/>
+        <x:s v="1023"/>
+        <x:s v="1024"/>
+        <x:s v="1025"/>
+        <x:s v="1026"/>
+        <x:s v="1027"/>
+        <x:s v="1028"/>
+        <x:s v="1029"/>
+        <x:s v="1030"/>
+        <x:s v="1031"/>
+        <x:s v="1032"/>
+        <x:s v="1033"/>
+        <x:s v="1034"/>
+        <x:s v="1035"/>
+        <x:s v="1036"/>
+        <x:s v="1037"/>
+        <x:s v="1038"/>
+        <x:s v="1039"/>
+        <x:s v="1040"/>
+        <x:s v="1041"/>
+        <x:s v="1042"/>
+        <x:s v="1043"/>
+        <x:s v="1044"/>
+        <x:s v="1045"/>
+        <x:s v="1046"/>
+        <x:s v="1047"/>
+        <x:s v="1048"/>
+        <x:s v="1049"/>
+        <x:s v="1050"/>
+        <x:s v="1051"/>
+        <x:s v="1052"/>
+        <x:s v="1053"/>
+        <x:s v="1054"/>
+        <x:s v="1055"/>
+        <x:s v="1056"/>
+        <x:s v="1057"/>
+        <x:s v="1058"/>
+        <x:s v="1059"/>
+        <x:s v="1060"/>
+        <x:s v="1061"/>
+        <x:s v="1062"/>
+        <x:s v="1063"/>
+        <x:s v="1064"/>
+        <x:s v="1065"/>
+        <x:s v="1066"/>
+        <x:s v="1067"/>
+        <x:s v="1068"/>
+        <x:s v="1069"/>
+        <x:s v="1070"/>
+        <x:s v="1071"/>
+        <x:s v="1072"/>
+        <x:s v="1073"/>
+        <x:s v="1074"/>
+        <x:s v="1075"/>
+        <x:s v="1076"/>
+        <x:s v="1077"/>
+        <x:s v="1078"/>
+        <x:s v="1079"/>
+        <x:s v="1080"/>
+        <x:s v="1081"/>
+        <x:s v="1082"/>
+        <x:s v="1083"/>
+        <x:s v="1084"/>
+        <x:s v="1086"/>
+        <x:s v="1087"/>
+        <x:s v="1089"/>
+        <x:s v="1090"/>
+        <x:s v="1091"/>
+        <x:s v="1092"/>
+        <x:s v="1093"/>
+        <x:s v="1094"/>
+        <x:s v="1095"/>
+        <x:s v="1096"/>
+        <x:s v="1097"/>
+        <x:s v="1098"/>
+        <x:s v="1099"/>
+        <x:s v="1100"/>
+        <x:s v="1101"/>
+        <x:s v="1102"/>
+        <x:s v="1103"/>
+        <x:s v="1104"/>
+        <x:s v="1105"/>
+        <x:s v="1106"/>
+        <x:s v="1107"/>
+        <x:s v="1109"/>
+        <x:s v="1111"/>
+        <x:s v="1112"/>
+        <x:s v="1113"/>
+        <x:s v="1115"/>
+        <x:s v="1116"/>
+        <x:s v="1117"/>
+        <x:s v="1118"/>
+        <x:s v="1119"/>
+        <x:s v="1120"/>
+        <x:s v="1121"/>
+        <x:s v="1122"/>
+        <x:s v="1123"/>
+        <x:s v="1124"/>
+        <x:s v="1125"/>
+        <x:s v="1126"/>
+        <x:s v="1127"/>
+        <x:s v="1128"/>
+        <x:s v="1129"/>
+        <x:s v="1130"/>
+        <x:s v="1131"/>
+        <x:s v="1132"/>
+        <x:s v="1133"/>
+        <x:s v="1134"/>
+        <x:s v="1136"/>
+        <x:s v="1137"/>
+        <x:s v="1139"/>
+        <x:s v="1140"/>
+        <x:s v="1141"/>
+        <x:s v="1142"/>
+        <x:s v="1143"/>
+        <x:s v="1144"/>
+        <x:s v="1145"/>
+        <x:s v="1146"/>
+        <x:s v="1148"/>
+        <x:s v="1149"/>
+        <x:s v="1150"/>
+        <x:s v="1152"/>
+        <x:s v="1153"/>
+        <x:s v="1154"/>
+        <x:s v="1155"/>
+        <x:s v="1156"/>
+        <x:s v="1158"/>
+        <x:s v="1160"/>
+        <x:s v="1161"/>
+        <x:s v="1162"/>
+        <x:s v="1163"/>
+        <x:s v="1165"/>
+        <x:s v="1166"/>
+        <x:s v="1168"/>
+        <x:s v="1169"/>
+        <x:s v="1170"/>
+        <x:s v="1171"/>
+        <x:s v="1173"/>
+        <x:s v="1175"/>
+        <x:s v="1176"/>
+        <x:s v="1178"/>
+        <x:s v="1180"/>
+        <x:s v="1183"/>
+        <x:s v="1195"/>
+        <x:s v="1196"/>
+        <x:s v="1197"/>
+        <x:s v="1198"/>
+        <x:s v="1199"/>
+        <x:s v="1200"/>
+        <x:s v="1201"/>
+        <x:s v="1202"/>
+        <x:s v="1204"/>
+        <x:s v="1205"/>
+        <x:s v="1207"/>
+        <x:s v="1209"/>
+        <x:s v="1212"/>
+        <x:s v="1215"/>
+        <x:s v="1217"/>
+        <x:s v="1221"/>
+        <x:s v="1250"/>
+        <x:s v="1253"/>
+        <x:s v="1255"/>
+        <x:s v="1260"/>
+        <x:s v="1261"/>
+        <x:s v="1263"/>
+        <x:s v="1266"/>
+        <x:s v="1269"/>
+        <x:s v="1271"/>
+        <x:s v="1275"/>
+        <x:s v="1278"/>
+        <x:s v="1280"/>
+        <x:s v="1283"/>
+        <x:s v="1292"/>
+        <x:s v="1294"/>
+        <x:s v="1295"/>
+        <x:s v="1296"/>
+        <x:s v="1298"/>
+        <x:s v="1300"/>
+        <x:s v="1302"/>
+        <x:s v="1305"/>
+        <x:s v="1309"/>
+        <x:s v="1315"/>
+        <x:s v="1317"/>
+        <x:s v="1350"/>
+        <x:s v="1355"/>
+        <x:s v="1860"/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="Ship date">
+      <x:sharedItems containsDate="1" containsString="0"/>
+    </x:cacheField>
+    <x:cacheField name="Items total">
+      <x:sharedItems containsString="0" containsNumber="1"/>
+    </x:cacheField>
+    <x:cacheField name="Tax rate">
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="8.5">
+        <x:n v="4.5"/>
+        <x:n v="0"/>
+        <x:n v="8.5"/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="Amount paid">
+      <x:sharedItems containsString="0" containsNumber="1"/>
+    </x:cacheField>
+  </x:cacheFields>
+</x:pivotCacheDefinition>
+</file>
+
+<file path=pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>